--- a/analysis/keywords_cluster1.xlsx
+++ b/analysis/keywords_cluster1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\kz-qandy-qantar\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F47A39ED-75DC-4757-9587-B3613D998A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A85DA8-BE3A-4B66-AAC3-15C59DC754AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9AA8FCCB-1290-4349-8554-E2DDEFA9D1F3}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t xml:space="preserve">law </t>
   </si>
   <si>
-    <t>Закон, законность</t>
-  </si>
-  <si>
     <t>deputy</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Russian</t>
+  </si>
+  <si>
+    <t>Закон</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -454,10 +454,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -473,55 +473,55 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
